--- a/Overzicht/Opmerkingen.xlsx
+++ b/Overzicht/Opmerkingen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16735" windowHeight="14522"/>
+    <workbookView windowWidth="16735" windowHeight="14522" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Opmerkingen" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348">
   <si>
     <t xml:space="preserve">Jaar </t>
   </si>
@@ -518,6 +518,9 @@
     <t xml:space="preserve"> FACT 000102 </t>
   </si>
   <si>
+    <t>Prive van iemand</t>
+  </si>
+  <si>
     <t xml:space="preserve"> FACT 000103 </t>
   </si>
   <si>
@@ -1032,6 +1035,30 @@
   </si>
   <si>
     <t>filenames.csv</t>
+  </si>
+  <si>
+    <t>Te betalen == 0 Bedrag in Onkosten en opbrengsten = 14,06</t>
+  </si>
+  <si>
+    <t>FACT 000161</t>
+  </si>
+  <si>
+    <t>De Watergroep</t>
+  </si>
+  <si>
+    <t>Te betalen == 5,05. Bedrag in Onkosten en opbrengsten = 14,06</t>
+  </si>
+  <si>
+    <t>FACT 000159</t>
+  </si>
+  <si>
+    <t>Te betalen == 0, Bedrag in Onkosten en opbrengsten = 14,06</t>
+  </si>
+  <si>
+    <t>Te betalen == -27,34, Bedrag in Onkosten en opbrengsten = +27,34</t>
+  </si>
+  <si>
+    <t>Te betalen == 51,19, Bedrag in Onkosten en opbrengsten = +51,19</t>
   </si>
 </sst>
 </file>
@@ -1039,12 +1066,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,9 +1095,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1077,24 +1179,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,13 +1210,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,73 +1225,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1212,7 +1246,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,157 +1414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,6 +1450,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1426,35 +1475,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1474,17 +1494,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1497,158 +1511,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1968,8 +2005,8 @@
   <sheetPr/>
   <dimension ref="A1:F403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="A39:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.71428571428571" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1999,7 +2036,7 @@
       </c>
       <c r="F1">
         <f>COUNTA(D2:D1000)</f>
-        <v>69</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3256,7 +3293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>20160114</v>
       </c>
@@ -3266,8 +3303,11 @@
       <c r="C91" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>20160114</v>
       </c>
@@ -3277,8 +3317,11 @@
       <c r="C92" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>20160114</v>
       </c>
@@ -3288,8 +3331,11 @@
       <c r="C93" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>20160114</v>
       </c>
@@ -3299,8 +3345,11 @@
       <c r="C94" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>20160114</v>
       </c>
@@ -3310,8 +3359,11 @@
       <c r="C95" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>20160114</v>
       </c>
@@ -3321,8 +3373,11 @@
       <c r="C96" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>20160114</v>
       </c>
@@ -3332,8 +3387,11 @@
       <c r="C97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>20160114</v>
       </c>
@@ -3343,8 +3401,11 @@
       <c r="C98" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>20160114</v>
       </c>
@@ -3354,8 +3415,11 @@
       <c r="C99" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>20160114</v>
       </c>
@@ -3365,8 +3429,11 @@
       <c r="C100" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>20160114</v>
       </c>
@@ -3376,8 +3443,11 @@
       <c r="C101" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>20160121</v>
       </c>
@@ -3387,8 +3457,11 @@
       <c r="C102" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>20160121</v>
       </c>
@@ -3398,8 +3471,11 @@
       <c r="C103" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>20160122</v>
       </c>
@@ -3409,8 +3485,11 @@
       <c r="C104" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>20160125</v>
       </c>
@@ -3420,8 +3499,11 @@
       <c r="C105" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>20160125</v>
       </c>
@@ -3431,8 +3513,11 @@
       <c r="C106" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>20160126</v>
       </c>
@@ -3442,8 +3527,11 @@
       <c r="C107" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>20160127</v>
       </c>
@@ -3453,8 +3541,11 @@
       <c r="C108" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>20160127</v>
       </c>
@@ -3464,8 +3555,11 @@
       <c r="C109" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>20160129</v>
       </c>
@@ -3475,8 +3569,11 @@
       <c r="C110" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>20160131</v>
       </c>
@@ -3486,8 +3583,11 @@
       <c r="C111" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>20160201</v>
       </c>
@@ -3497,8 +3597,11 @@
       <c r="C112" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>20160209</v>
       </c>
@@ -3508,8 +3611,11 @@
       <c r="C113" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>20160214</v>
       </c>
@@ -3519,8 +3625,11 @@
       <c r="C114" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>20160214</v>
       </c>
@@ -3530,8 +3639,11 @@
       <c r="C115" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>20160214</v>
       </c>
@@ -3541,8 +3653,11 @@
       <c r="C116" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>20160214</v>
       </c>
@@ -3552,8 +3667,11 @@
       <c r="C117" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>20160214</v>
       </c>
@@ -3563,8 +3681,11 @@
       <c r="C118" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>20160214</v>
       </c>
@@ -3574,8 +3695,11 @@
       <c r="C119" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>20160214</v>
       </c>
@@ -3585,8 +3709,11 @@
       <c r="C120" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>20160214</v>
       </c>
@@ -3596,8 +3723,11 @@
       <c r="C121" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>20160214</v>
       </c>
@@ -3607,8 +3737,11 @@
       <c r="C122" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>20160214</v>
       </c>
@@ -3618,8 +3751,11 @@
       <c r="C123" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>20160218</v>
       </c>
@@ -3629,8 +3765,11 @@
       <c r="C124" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>20160223</v>
       </c>
@@ -3640,8 +3779,11 @@
       <c r="C125" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>20160225</v>
       </c>
@@ -3651,8 +3793,11 @@
       <c r="C126" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>20160225</v>
       </c>
@@ -3662,8 +3807,11 @@
       <c r="C127" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>20160225</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="C128" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>20160228</v>
       </c>
@@ -3684,8 +3835,11 @@
       <c r="C129" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>20160229</v>
       </c>
@@ -3695,129 +3849,168 @@
       <c r="C130" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>20160301</v>
       </c>
       <c r="B131" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C131" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132">
         <v>20160308</v>
       </c>
       <c r="B132" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C132" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133">
         <v>20160314</v>
       </c>
       <c r="B133" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C133" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134">
         <v>20160314</v>
       </c>
       <c r="B134" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C134" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135">
         <v>20160314</v>
       </c>
       <c r="B135" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C135" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136">
         <v>20160314</v>
       </c>
       <c r="B136" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C136" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137">
         <v>20160314</v>
       </c>
       <c r="B137" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C137" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138">
         <v>20160314</v>
       </c>
       <c r="B138" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C138" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139">
         <v>20160314</v>
       </c>
       <c r="B139" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C139" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140">
         <v>20160314</v>
       </c>
       <c r="B140" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C140" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141">
         <v>20160314</v>
       </c>
       <c r="B141" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C141" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142">
         <v>20160314</v>
       </c>
@@ -3827,52 +4020,67 @@
       <c r="C142" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143">
         <v>20160314</v>
       </c>
       <c r="B143" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C143" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144">
         <v>20160317</v>
       </c>
       <c r="B144" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C144" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>181</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145">
         <v>20160317</v>
       </c>
       <c r="B145" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C145" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>182</v>
+      </c>
+      <c r="D145" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146">
         <v>20160317</v>
       </c>
       <c r="B146" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C146" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147">
         <v>20160318</v>
       </c>
@@ -3882,8 +4090,11 @@
       <c r="C147" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148">
         <v>20160321</v>
       </c>
@@ -3893,8 +4104,11 @@
       <c r="C148" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149">
         <v>20160322</v>
       </c>
@@ -3902,40 +4116,52 @@
         <v>12</v>
       </c>
       <c r="C149" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>184</v>
+      </c>
+      <c r="D149" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150">
         <v>20160323</v>
       </c>
       <c r="B150" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C150" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>181</v>
+      </c>
+      <c r="D150" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151">
         <v>20160323</v>
       </c>
       <c r="B151" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C151" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>182</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152">
         <v>20160323</v>
       </c>
       <c r="B152" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C152" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3943,7 +4169,7 @@
         <v>20160328</v>
       </c>
       <c r="B153" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -3965,7 +4191,7 @@
         <v>20160331</v>
       </c>
       <c r="B155" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C155" t="s">
         <v>140</v>
@@ -4130,7 +4356,7 @@
         <v>20160411</v>
       </c>
       <c r="B170" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C170" t="s">
         <v>96</v>
@@ -4141,7 +4367,7 @@
         <v>20160411</v>
       </c>
       <c r="B171" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C171" t="s">
         <v>96</v>
@@ -4152,7 +4378,7 @@
         <v>20160414</v>
       </c>
       <c r="B172" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C172" t="s">
         <v>96</v>
@@ -4163,7 +4389,7 @@
         <v>20160414</v>
       </c>
       <c r="B173" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C173" t="s">
         <v>96</v>
@@ -4174,7 +4400,7 @@
         <v>20160414</v>
       </c>
       <c r="B174" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C174" t="s">
         <v>96</v>
@@ -4185,7 +4411,7 @@
         <v>20160414</v>
       </c>
       <c r="B175" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C175" t="s">
         <v>96</v>
@@ -4196,7 +4422,7 @@
         <v>20160414</v>
       </c>
       <c r="B176" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C176" t="s">
         <v>96</v>
@@ -4207,7 +4433,7 @@
         <v>20160414</v>
       </c>
       <c r="B177" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C177" t="s">
         <v>96</v>
@@ -4218,7 +4444,7 @@
         <v>20160414</v>
       </c>
       <c r="B178" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C178" t="s">
         <v>96</v>
@@ -4229,7 +4455,7 @@
         <v>20160414</v>
       </c>
       <c r="B179" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C179" t="s">
         <v>96</v>
@@ -4240,7 +4466,7 @@
         <v>20160414</v>
       </c>
       <c r="B180" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C180" t="s">
         <v>96</v>
@@ -4251,7 +4477,7 @@
         <v>20160414</v>
       </c>
       <c r="B181" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C181" t="s">
         <v>96</v>
@@ -4262,7 +4488,7 @@
         <v>20160414</v>
       </c>
       <c r="B182" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C182" t="s">
         <v>96</v>
@@ -4273,7 +4499,7 @@
         <v>20160414</v>
       </c>
       <c r="B183" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C183" t="s">
         <v>140</v>
@@ -4284,10 +4510,10 @@
         <v>20160419</v>
       </c>
       <c r="B184" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C184" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4295,10 +4521,10 @@
         <v>20160419</v>
       </c>
       <c r="B185" t="s">
+        <v>206</v>
+      </c>
+      <c r="C185" t="s">
         <v>205</v>
-      </c>
-      <c r="C185" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4306,7 +4532,7 @@
         <v>20160420</v>
       </c>
       <c r="B186" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C186" t="s">
         <v>22</v>
@@ -4317,7 +4543,7 @@
         <v>20160420</v>
       </c>
       <c r="B187" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C187" t="s">
         <v>22</v>
@@ -4328,7 +4554,7 @@
         <v>20160420</v>
       </c>
       <c r="B188" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C188" t="s">
         <v>59</v>
@@ -4339,10 +4565,10 @@
         <v>20160420</v>
       </c>
       <c r="B189" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C189" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4350,10 +4576,10 @@
         <v>20160420</v>
       </c>
       <c r="B190" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C190" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4361,10 +4587,10 @@
         <v>20160420</v>
       </c>
       <c r="B191" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4372,10 +4598,10 @@
         <v>20160420</v>
       </c>
       <c r="B192" t="s">
+        <v>214</v>
+      </c>
+      <c r="C192" t="s">
         <v>213</v>
-      </c>
-      <c r="C192" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4383,10 +4609,10 @@
         <v>20160421</v>
       </c>
       <c r="B193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C193" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4394,7 +4620,7 @@
         <v>20160428</v>
       </c>
       <c r="B194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -4405,7 +4631,7 @@
         <v>20160503</v>
       </c>
       <c r="B195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C195" t="s">
         <v>96</v>
@@ -4416,10 +4642,10 @@
         <v>20160506</v>
       </c>
       <c r="B196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C196" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4427,10 +4653,10 @@
         <v>20160506</v>
       </c>
       <c r="B197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C197" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4438,7 +4664,7 @@
         <v>20160516</v>
       </c>
       <c r="B198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C198" t="s">
         <v>96</v>
@@ -4449,7 +4675,7 @@
         <v>20160516</v>
       </c>
       <c r="B199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C199" t="s">
         <v>96</v>
@@ -4460,7 +4686,7 @@
         <v>20160516</v>
       </c>
       <c r="B200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C200" t="s">
         <v>96</v>
@@ -4471,7 +4697,7 @@
         <v>20160516</v>
       </c>
       <c r="B201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C201" t="s">
         <v>96</v>
@@ -4482,7 +4708,7 @@
         <v>20160516</v>
       </c>
       <c r="B202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C202" t="s">
         <v>96</v>
@@ -4493,7 +4719,7 @@
         <v>20160516</v>
       </c>
       <c r="B203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C203" t="s">
         <v>96</v>
@@ -4504,7 +4730,7 @@
         <v>20160516</v>
       </c>
       <c r="B204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C204" t="s">
         <v>96</v>
@@ -4515,7 +4741,7 @@
         <v>20160516</v>
       </c>
       <c r="B205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C205" t="s">
         <v>96</v>
@@ -4526,7 +4752,7 @@
         <v>20160516</v>
       </c>
       <c r="B206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C206" t="s">
         <v>96</v>
@@ -4537,7 +4763,7 @@
         <v>20160516</v>
       </c>
       <c r="B207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C207" t="s">
         <v>96</v>
@@ -4548,7 +4774,7 @@
         <v>20160516</v>
       </c>
       <c r="B208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C208" t="s">
         <v>96</v>
@@ -4559,7 +4785,7 @@
         <v>20160517</v>
       </c>
       <c r="B209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C209" t="s">
         <v>22</v>
@@ -4570,7 +4796,7 @@
         <v>20160523</v>
       </c>
       <c r="B210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C210" t="s">
         <v>59</v>
@@ -4581,7 +4807,7 @@
         <v>20160528</v>
       </c>
       <c r="B211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -4592,7 +4818,7 @@
         <v>20160531</v>
       </c>
       <c r="B212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -4603,7 +4829,7 @@
         <v>20160601</v>
       </c>
       <c r="B213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C213" t="s">
         <v>96</v>
@@ -4614,7 +4840,7 @@
         <v>20160601</v>
       </c>
       <c r="B214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C214" t="s">
         <v>25</v>
@@ -4625,10 +4851,10 @@
         <v>20160607</v>
       </c>
       <c r="B215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C215" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4636,7 +4862,7 @@
         <v>20160614</v>
       </c>
       <c r="B216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C216" t="s">
         <v>96</v>
@@ -4647,7 +4873,7 @@
         <v>20160614</v>
       </c>
       <c r="B217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C217" t="s">
         <v>96</v>
@@ -4658,7 +4884,7 @@
         <v>20160614</v>
       </c>
       <c r="B218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C218" t="s">
         <v>96</v>
@@ -4669,7 +4895,7 @@
         <v>20160614</v>
       </c>
       <c r="B219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C219" t="s">
         <v>96</v>
@@ -4680,7 +4906,7 @@
         <v>20160614</v>
       </c>
       <c r="B220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C220" t="s">
         <v>96</v>
@@ -4691,7 +4917,7 @@
         <v>20160614</v>
       </c>
       <c r="B221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C221" t="s">
         <v>96</v>
@@ -4702,7 +4928,7 @@
         <v>20160614</v>
       </c>
       <c r="B222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C222" t="s">
         <v>96</v>
@@ -4713,7 +4939,7 @@
         <v>20160614</v>
       </c>
       <c r="B223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C223" t="s">
         <v>96</v>
@@ -4724,7 +4950,7 @@
         <v>20160614</v>
       </c>
       <c r="B224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C224" t="s">
         <v>96</v>
@@ -4735,7 +4961,7 @@
         <v>20160614</v>
       </c>
       <c r="B225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C225" t="s">
         <v>96</v>
@@ -4746,7 +4972,7 @@
         <v>20160614</v>
       </c>
       <c r="B226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C226" t="s">
         <v>96</v>
@@ -4757,7 +4983,7 @@
         <v>20160620</v>
       </c>
       <c r="B227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C227" t="s">
         <v>22</v>
@@ -4768,7 +4994,7 @@
         <v>20160620</v>
       </c>
       <c r="B228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C228" t="s">
         <v>22</v>
@@ -4779,10 +5005,10 @@
         <v>20160620</v>
       </c>
       <c r="B229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C229" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4790,7 +5016,7 @@
         <v>20160621</v>
       </c>
       <c r="B230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C230" t="s">
         <v>59</v>
@@ -4801,7 +5027,7 @@
         <v>20160628</v>
       </c>
       <c r="B231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -4812,7 +5038,7 @@
         <v>20160628</v>
       </c>
       <c r="B232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -4823,7 +5049,7 @@
         <v>20160703</v>
       </c>
       <c r="B233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C233" t="s">
         <v>96</v>
@@ -4834,10 +5060,10 @@
         <v>20160712</v>
       </c>
       <c r="B234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C234" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4845,10 +5071,10 @@
         <v>20160714</v>
       </c>
       <c r="B235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C235" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4856,7 +5082,7 @@
         <v>20160714</v>
       </c>
       <c r="B236" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C236" t="s">
         <v>96</v>
@@ -4867,10 +5093,10 @@
         <v>20160714</v>
       </c>
       <c r="B237" t="s">
+        <v>259</v>
+      </c>
+      <c r="C237" t="s">
         <v>258</v>
-      </c>
-      <c r="C237" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4878,7 +5104,7 @@
         <v>20160714</v>
       </c>
       <c r="B238" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C238" t="s">
         <v>96</v>
@@ -4889,10 +5115,10 @@
         <v>20160714</v>
       </c>
       <c r="B239" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C239" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4900,7 +5126,7 @@
         <v>20160714</v>
       </c>
       <c r="B240" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C240" t="s">
         <v>96</v>
@@ -4911,10 +5137,10 @@
         <v>20160714</v>
       </c>
       <c r="B241" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C241" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4922,7 +5148,7 @@
         <v>20160714</v>
       </c>
       <c r="B242" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C242" t="s">
         <v>96</v>
@@ -4933,10 +5159,10 @@
         <v>20160714</v>
       </c>
       <c r="B243" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C243" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4944,7 +5170,7 @@
         <v>20160714</v>
       </c>
       <c r="B244" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C244" t="s">
         <v>96</v>
@@ -4955,10 +5181,10 @@
         <v>20160714</v>
       </c>
       <c r="B245" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C245" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4966,7 +5192,7 @@
         <v>20160714</v>
       </c>
       <c r="B246" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C246" t="s">
         <v>96</v>
@@ -4977,10 +5203,10 @@
         <v>20160714</v>
       </c>
       <c r="B247" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C247" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4988,7 +5214,7 @@
         <v>20160714</v>
       </c>
       <c r="B248" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C248" t="s">
         <v>96</v>
@@ -4999,10 +5225,10 @@
         <v>20160714</v>
       </c>
       <c r="B249" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C249" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5010,7 +5236,7 @@
         <v>20160714</v>
       </c>
       <c r="B250" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C250" t="s">
         <v>96</v>
@@ -5021,10 +5247,10 @@
         <v>20160714</v>
       </c>
       <c r="B251" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C251" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5032,7 +5258,7 @@
         <v>20160714</v>
       </c>
       <c r="B252" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C252" t="s">
         <v>96</v>
@@ -5043,10 +5269,10 @@
         <v>20160714</v>
       </c>
       <c r="B253" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C253" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5054,7 +5280,7 @@
         <v>20160714</v>
       </c>
       <c r="B254" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C254" t="s">
         <v>96</v>
@@ -5065,10 +5291,10 @@
         <v>20160714</v>
       </c>
       <c r="B255" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C255" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5076,7 +5302,7 @@
         <v>20160714</v>
       </c>
       <c r="B256" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C256" t="s">
         <v>96</v>
@@ -5087,10 +5313,10 @@
         <v>20160719</v>
       </c>
       <c r="B257" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C257" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5098,7 +5324,7 @@
         <v>20160719</v>
       </c>
       <c r="B258" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C258" t="s">
         <v>22</v>
@@ -5109,10 +5335,10 @@
         <v>20160720</v>
       </c>
       <c r="B259" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C259" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5120,7 +5346,7 @@
         <v>20160720</v>
       </c>
       <c r="B260" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C260" t="s">
         <v>108</v>
@@ -5131,10 +5357,10 @@
         <v>20160725</v>
       </c>
       <c r="B261" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C261" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5142,10 +5368,10 @@
         <v>20160725</v>
       </c>
       <c r="B262" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C262" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5153,7 +5379,7 @@
         <v>20160725</v>
       </c>
       <c r="B263" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -5164,10 +5390,10 @@
         <v>20160727</v>
       </c>
       <c r="B264" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C264" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5175,7 +5401,7 @@
         <v>20160727</v>
       </c>
       <c r="B265" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -5186,10 +5412,10 @@
         <v>20160728</v>
       </c>
       <c r="B266" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C266" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5197,7 +5423,7 @@
         <v>20160728</v>
       </c>
       <c r="B267" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -5208,10 +5434,10 @@
         <v>20160729</v>
       </c>
       <c r="B268" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C268" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5219,7 +5445,7 @@
         <v>20160729</v>
       </c>
       <c r="B269" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C269" t="s">
         <v>25</v>
@@ -5230,7 +5456,7 @@
         <v>20160731</v>
       </c>
       <c r="B270" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C270" t="s">
         <v>22</v>
@@ -5241,10 +5467,10 @@
         <v>20160801</v>
       </c>
       <c r="B271" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C271" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5252,7 +5478,7 @@
         <v>20160801</v>
       </c>
       <c r="B272" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C272" t="s">
         <v>96</v>
@@ -5263,10 +5489,10 @@
         <v>20160804</v>
       </c>
       <c r="B273" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C273" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5274,7 +5500,7 @@
         <v>20160804</v>
       </c>
       <c r="B274" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C274" t="s">
         <v>25</v>
@@ -5285,10 +5511,10 @@
         <v>20160804</v>
       </c>
       <c r="B275" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C275" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5296,10 +5522,10 @@
         <v>20160804</v>
       </c>
       <c r="B276" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C276" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5307,10 +5533,10 @@
         <v>20160804</v>
       </c>
       <c r="B277" t="s">
+        <v>285</v>
+      </c>
+      <c r="C277" t="s">
         <v>284</v>
-      </c>
-      <c r="C277" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5318,10 +5544,10 @@
         <v>20160804</v>
       </c>
       <c r="B278" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C278" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5329,10 +5555,10 @@
         <v>20160810</v>
       </c>
       <c r="B279" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C279" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5340,10 +5566,10 @@
         <v>20160810</v>
       </c>
       <c r="B280" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C280" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5351,10 +5577,10 @@
         <v>20160815</v>
       </c>
       <c r="B281" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C281" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5362,7 +5588,7 @@
         <v>20160815</v>
       </c>
       <c r="B282" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C282" t="s">
         <v>96</v>
@@ -5373,10 +5599,10 @@
         <v>20160815</v>
       </c>
       <c r="B283" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C283" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5384,7 +5610,7 @@
         <v>20160815</v>
       </c>
       <c r="B284" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C284" t="s">
         <v>96</v>
@@ -5395,10 +5621,10 @@
         <v>20160815</v>
       </c>
       <c r="B285" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C285" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5406,7 +5632,7 @@
         <v>20160815</v>
       </c>
       <c r="B286" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C286" t="s">
         <v>96</v>
@@ -5417,10 +5643,10 @@
         <v>20160815</v>
       </c>
       <c r="B287" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C287" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5428,7 +5654,7 @@
         <v>20160815</v>
       </c>
       <c r="B288" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C288" t="s">
         <v>96</v>
@@ -5439,10 +5665,10 @@
         <v>20160815</v>
       </c>
       <c r="B289" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C289" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5450,7 +5676,7 @@
         <v>20160815</v>
       </c>
       <c r="B290" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C290" t="s">
         <v>96</v>
@@ -5461,10 +5687,10 @@
         <v>20160815</v>
       </c>
       <c r="B291" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5472,7 +5698,7 @@
         <v>20160815</v>
       </c>
       <c r="B292" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C292" t="s">
         <v>96</v>
@@ -5483,10 +5709,10 @@
         <v>20160815</v>
       </c>
       <c r="B293" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5494,7 +5720,7 @@
         <v>20160815</v>
       </c>
       <c r="B294" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C294" t="s">
         <v>96</v>
@@ -5505,10 +5731,10 @@
         <v>20160815</v>
       </c>
       <c r="B295" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C295" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5516,7 +5742,7 @@
         <v>20160815</v>
       </c>
       <c r="B296" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C296" t="s">
         <v>96</v>
@@ -5527,10 +5753,10 @@
         <v>20160815</v>
       </c>
       <c r="B297" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C297" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5538,7 +5764,7 @@
         <v>20160815</v>
       </c>
       <c r="B298" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C298" t="s">
         <v>96</v>
@@ -5549,10 +5775,10 @@
         <v>20160815</v>
       </c>
       <c r="B299" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C299" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5560,7 +5786,7 @@
         <v>20160815</v>
       </c>
       <c r="B300" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C300" t="s">
         <v>96</v>
@@ -5571,10 +5797,10 @@
         <v>20160815</v>
       </c>
       <c r="B301" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C301" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5582,7 +5808,7 @@
         <v>20160815</v>
       </c>
       <c r="B302" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C302" t="s">
         <v>96</v>
@@ -5593,10 +5819,10 @@
         <v>20160817</v>
       </c>
       <c r="B303" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C303" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5604,7 +5830,7 @@
         <v>20160817</v>
       </c>
       <c r="B304" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C304" t="s">
         <v>108</v>
@@ -5615,10 +5841,10 @@
         <v>20160819</v>
       </c>
       <c r="B305" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C305" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5626,7 +5852,7 @@
         <v>20160819</v>
       </c>
       <c r="B306" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C306" t="s">
         <v>22</v>
@@ -5637,10 +5863,10 @@
         <v>20160825</v>
       </c>
       <c r="B307" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C307" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5648,7 +5874,7 @@
         <v>20160825</v>
       </c>
       <c r="B308" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C308" t="s">
         <v>116</v>
@@ -5659,10 +5885,10 @@
         <v>20160826</v>
       </c>
       <c r="B309" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C309" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5670,10 +5896,10 @@
         <v>20160826</v>
       </c>
       <c r="B310" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C310" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5681,10 +5907,10 @@
         <v>20160828</v>
       </c>
       <c r="B311" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C311" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5692,7 +5918,7 @@
         <v>20160828</v>
       </c>
       <c r="B312" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -5703,10 +5929,10 @@
         <v>20160831</v>
       </c>
       <c r="B313" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C313" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5714,7 +5940,7 @@
         <v>20160831</v>
       </c>
       <c r="B314" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -5725,10 +5951,10 @@
         <v>20160831</v>
       </c>
       <c r="B315" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C315" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5736,10 +5962,10 @@
         <v>20160831</v>
       </c>
       <c r="B316" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C316" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5747,10 +5973,10 @@
         <v>20160901</v>
       </c>
       <c r="B317" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C317" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5758,7 +5984,7 @@
         <v>20160901</v>
       </c>
       <c r="B318" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C318" t="s">
         <v>96</v>
@@ -5769,10 +5995,10 @@
         <v>20160905</v>
       </c>
       <c r="B319" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C319" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5780,7 +6006,7 @@
         <v>20160905</v>
       </c>
       <c r="B320" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C320" t="s">
         <v>39</v>
@@ -5791,10 +6017,10 @@
         <v>20160914</v>
       </c>
       <c r="B321" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C321" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5802,10 +6028,10 @@
         <v>20160914</v>
       </c>
       <c r="B322" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C322" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5813,10 +6039,10 @@
         <v>20160914</v>
       </c>
       <c r="B323" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C323" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5824,10 +6050,10 @@
         <v>20160914</v>
       </c>
       <c r="B324" t="s">
+        <v>315</v>
+      </c>
+      <c r="C324" t="s">
         <v>314</v>
-      </c>
-      <c r="C324" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5835,10 +6061,10 @@
         <v>20160914</v>
       </c>
       <c r="B325" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C325" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5846,10 +6072,10 @@
         <v>20160914</v>
       </c>
       <c r="B326" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C326" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5857,10 +6083,10 @@
         <v>20160914</v>
       </c>
       <c r="B327" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C327" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5868,10 +6094,10 @@
         <v>20160914</v>
       </c>
       <c r="B328" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C328" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5879,10 +6105,10 @@
         <v>20160914</v>
       </c>
       <c r="B329" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C329" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5890,10 +6116,10 @@
         <v>20160914</v>
       </c>
       <c r="B330" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C330" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5901,10 +6127,10 @@
         <v>20160914</v>
       </c>
       <c r="B331" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C331" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5912,10 +6138,10 @@
         <v>20160914</v>
       </c>
       <c r="B332" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C332" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5923,10 +6149,10 @@
         <v>20160914</v>
       </c>
       <c r="B333" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C333" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5934,10 +6160,10 @@
         <v>20160914</v>
       </c>
       <c r="B334" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C334" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5945,10 +6171,10 @@
         <v>20160914</v>
       </c>
       <c r="B335" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C335" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5956,10 +6182,10 @@
         <v>20160914</v>
       </c>
       <c r="B336" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C336" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5967,10 +6193,10 @@
         <v>20160914</v>
       </c>
       <c r="B337" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C337" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5978,10 +6204,10 @@
         <v>20160914</v>
       </c>
       <c r="B338" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C338" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5989,10 +6215,10 @@
         <v>20160914</v>
       </c>
       <c r="B339" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C339" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6000,10 +6226,10 @@
         <v>20160914</v>
       </c>
       <c r="B340" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C340" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6011,10 +6237,10 @@
         <v>20160914</v>
       </c>
       <c r="B341" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C341" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6022,10 +6248,10 @@
         <v>20160914</v>
       </c>
       <c r="B342" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C342" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6033,10 +6259,10 @@
         <v>20160919</v>
       </c>
       <c r="B343" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C343" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6044,7 +6270,7 @@
         <v>20160919</v>
       </c>
       <c r="B344" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -6055,10 +6281,10 @@
         <v>20160919</v>
       </c>
       <c r="B345" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C345" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6066,7 +6292,7 @@
         <v>20160919</v>
       </c>
       <c r="B346" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -6077,10 +6303,10 @@
         <v>20160919</v>
       </c>
       <c r="B347" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C347" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6088,7 +6314,7 @@
         <v>20160919</v>
       </c>
       <c r="B348" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C348" t="s">
         <v>108</v>
@@ -6099,10 +6325,10 @@
         <v>20160921</v>
       </c>
       <c r="B349" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C349" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6110,7 +6336,7 @@
         <v>20160921</v>
       </c>
       <c r="B350" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C350" t="s">
         <v>22</v>
@@ -6121,10 +6347,10 @@
         <v>20160924</v>
       </c>
       <c r="B351" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C351" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6132,10 +6358,10 @@
         <v>20160924</v>
       </c>
       <c r="B352" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C352" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6143,10 +6369,10 @@
         <v>20160928</v>
       </c>
       <c r="B353" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C353" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6154,7 +6380,7 @@
         <v>20160928</v>
       </c>
       <c r="B354" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -6168,7 +6394,7 @@
         <v>38</v>
       </c>
       <c r="C355" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6179,7 +6405,7 @@
         <v>38</v>
       </c>
       <c r="C356" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6190,7 +6416,7 @@
         <v>40</v>
       </c>
       <c r="C357" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6201,7 +6427,7 @@
         <v>40</v>
       </c>
       <c r="C358" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6212,7 +6438,7 @@
         <v>41</v>
       </c>
       <c r="C359" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6223,7 +6449,7 @@
         <v>41</v>
       </c>
       <c r="C360" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6234,7 +6460,7 @@
         <v>42</v>
       </c>
       <c r="C361" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6245,7 +6471,7 @@
         <v>42</v>
       </c>
       <c r="C362" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6256,7 +6482,7 @@
         <v>57</v>
       </c>
       <c r="C363" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6267,7 +6493,7 @@
         <v>57</v>
       </c>
       <c r="C364" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6278,7 +6504,7 @@
         <v>43</v>
       </c>
       <c r="C365" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6289,7 +6515,7 @@
         <v>43</v>
       </c>
       <c r="C366" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6300,7 +6526,7 @@
         <v>45</v>
       </c>
       <c r="C367" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6311,7 +6537,7 @@
         <v>45</v>
       </c>
       <c r="C368" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6322,7 +6548,7 @@
         <v>46</v>
       </c>
       <c r="C369" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6333,7 +6559,7 @@
         <v>46</v>
       </c>
       <c r="C370" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6344,7 +6570,7 @@
         <v>47</v>
       </c>
       <c r="C371" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6355,7 +6581,7 @@
         <v>47</v>
       </c>
       <c r="C372" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6366,7 +6592,7 @@
         <v>48</v>
       </c>
       <c r="C373" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6377,7 +6603,7 @@
         <v>48</v>
       </c>
       <c r="C374" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6388,7 +6614,7 @@
         <v>49</v>
       </c>
       <c r="C375" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6399,7 +6625,7 @@
         <v>49</v>
       </c>
       <c r="C376" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6410,7 +6636,7 @@
         <v>50</v>
       </c>
       <c r="C377" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6421,7 +6647,7 @@
         <v>50</v>
       </c>
       <c r="C378" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6432,7 +6658,7 @@
         <v>51</v>
       </c>
       <c r="C379" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6454,7 +6680,7 @@
         <v>52</v>
       </c>
       <c r="C381" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6465,7 +6691,7 @@
         <v>52</v>
       </c>
       <c r="C382" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6476,7 +6702,7 @@
         <v>58</v>
       </c>
       <c r="C383" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6498,7 +6724,7 @@
         <v>60</v>
       </c>
       <c r="C385" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6520,7 +6746,7 @@
         <v>61</v>
       </c>
       <c r="C387" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6542,7 +6768,7 @@
         <v>68</v>
       </c>
       <c r="C389" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6553,7 +6779,7 @@
         <v>68</v>
       </c>
       <c r="C390" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6564,7 +6790,7 @@
         <v>53</v>
       </c>
       <c r="C391" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6586,7 +6812,7 @@
         <v>55</v>
       </c>
       <c r="C393" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6608,7 +6834,7 @@
         <v>88</v>
       </c>
       <c r="C395" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6619,7 +6845,7 @@
         <v>88</v>
       </c>
       <c r="C396" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6630,7 +6856,7 @@
         <v>67</v>
       </c>
       <c r="C397" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6641,7 +6867,7 @@
         <v>67</v>
       </c>
       <c r="C398" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6652,7 +6878,7 @@
         <v>74</v>
       </c>
       <c r="C399" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6663,7 +6889,7 @@
         <v>74</v>
       </c>
       <c r="C400" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6674,7 +6900,7 @@
         <v>75</v>
       </c>
       <c r="C401" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6685,12 +6911,12 @@
         <v>75</v>
       </c>
       <c r="C402" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -6702,78 +6928,88 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9.25"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>-51.19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>20151020</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>-27.34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>20160420</v>
+      </c>
+      <c r="B2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>20160419</v>
+      </c>
+      <c r="B3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>14.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>14.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>106.36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>19.53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>124.78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>26.65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <f>SUM(A1:A12)</f>
-        <v>408.91</v>
+        <v>20151001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>20151001</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
